--- a/A02RNLQ_Orca Pricing Report.xlsx
+++ b/A02RNLQ_Orca Pricing Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\Yuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D53D723-380D-4334-956B-C922A05ED99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1A7CA9-4D14-49BA-A9EE-0E7A3175B1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" xr2:uid="{0D4186B2-482B-4BF3-A05B-9361C99F8840}"/>
   </bookViews>
@@ -329,54 +329,105 @@
     <t>RQST By: ROMERO ONIRIA</t>
   </si>
   <si>
+    <t>CMC: LABBR</t>
+  </si>
+  <si>
+    <t>HHOLE17X30X24</t>
+  </si>
+  <si>
+    <t>HANDHOLE30X48</t>
+  </si>
+  <si>
+    <t>8FT-GRD-ROD</t>
+  </si>
+  <si>
+    <t>FNAP-CBL-024EUC</t>
+  </si>
+  <si>
+    <t>FRC: 1C</t>
+  </si>
+  <si>
+    <t>GUY-DOWN</t>
+  </si>
+  <si>
+    <t>0.85 HRS</t>
+  </si>
+  <si>
+    <t>**** RETIREMENT DETAILS ****</t>
+  </si>
+  <si>
+    <t>Part B</t>
+  </si>
+  <si>
+    <t>FRC: 1X</t>
+  </si>
+  <si>
+    <t>YR</t>
+  </si>
+  <si>
+    <t>RETIREMENT</t>
+  </si>
+  <si>
+    <t>COST REMVL</t>
+  </si>
+  <si>
+    <t>$/UNIT</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>EXEMPT MATERIAL - TELCO</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1X</t>
+  </si>
+  <si>
+    <t>LABBRT6</t>
+  </si>
+  <si>
+    <t>GABRIEL / TELCO</t>
+  </si>
+  <si>
+    <t>Generated: 06/27/2024, 03:45 PM</t>
+  </si>
+  <si>
+    <t>CFAS Project #: A02RNLQ</t>
+  </si>
+  <si>
+    <t>Pricing Date: 06/27/2024</t>
+  </si>
+  <si>
+    <t>5BQ2MR-288</t>
+  </si>
+  <si>
+    <t>FNAP-CBL-072EUC</t>
+  </si>
+  <si>
+    <t>212.14 HRS</t>
+  </si>
+  <si>
+    <t>64.15 HRS</t>
+  </si>
+  <si>
+    <t>147.99 HRS</t>
+  </si>
+  <si>
+    <t>171.34 HRS</t>
+  </si>
+  <si>
+    <t>STRAND-6</t>
+  </si>
+  <si>
     <t>FNAP-CBL-048</t>
   </si>
   <si>
-    <t>Generated: 06/20/2024, 02:37 PM</t>
-  </si>
-  <si>
-    <t>CFAS Project #: A02RNLQ</t>
-  </si>
-  <si>
-    <t>CMC: LABBR</t>
-  </si>
-  <si>
-    <t>Pricing Date: 06/20/2024</t>
-  </si>
-  <si>
-    <t>HHOLE17X30X24</t>
-  </si>
-  <si>
-    <t>HANDHOLE30X48</t>
-  </si>
-  <si>
-    <t>8FT-GRD-ROD</t>
-  </si>
-  <si>
-    <t>5BQ2MR-288</t>
-  </si>
-  <si>
-    <t>FNAP-CBL-024EUC</t>
-  </si>
-  <si>
-    <t>FNAP-CBL-072EUC</t>
-  </si>
-  <si>
-    <t>212.14 HRS</t>
-  </si>
-  <si>
-    <t>64.15 HRS</t>
-  </si>
-  <si>
-    <t>147.99 HRS</t>
-  </si>
-  <si>
-    <t>171.34 HRS</t>
-  </si>
-  <si>
-    <t>STRAND-6</t>
-  </si>
-  <si>
     <t>56.17 HRS</t>
   </si>
   <si>
@@ -389,70 +440,19 @@
     <t>7.44 HRS</t>
   </si>
   <si>
-    <t>FRC: 1C</t>
-  </si>
-  <si>
     <t>MR1-1</t>
   </si>
   <si>
-    <t>GUY-DOWN</t>
-  </si>
-  <si>
-    <t>0.85 HRS</t>
-  </si>
-  <si>
     <t>0.63 HRS</t>
   </si>
   <si>
     <t>28.94 HRS</t>
   </si>
   <si>
-    <t>**** RETIREMENT DETAILS ****</t>
-  </si>
-  <si>
-    <t>Part B</t>
-  </si>
-  <si>
-    <t>FRC: 1X</t>
-  </si>
-  <si>
-    <t>YR</t>
-  </si>
-  <si>
-    <t>RETIREMENT</t>
-  </si>
-  <si>
-    <t>COST REMVL</t>
-  </si>
-  <si>
-    <t>$/UNIT</t>
-  </si>
-  <si>
-    <t>AMT</t>
-  </si>
-  <si>
     <t>0.73 HRS</t>
   </si>
   <si>
-    <t>EXEMPT MATERIAL - TELCO</t>
-  </si>
-  <si>
     <t>2.03 HRS</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>1C</t>
-  </si>
-  <si>
-    <t>1X</t>
-  </si>
-  <si>
-    <t>LABBRT6</t>
-  </si>
-  <si>
-    <t>GABRIEL / TELCO</t>
   </si>
   <si>
     <t>AR</t>
@@ -570,13 +570,13 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -944,7 +944,7 @@
     </row>
     <row r="3" spans="1:7" ht="85.5">
       <c r="A3" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="71.25">
@@ -964,12 +964,12 @@
     </row>
     <row r="7" spans="1:7" ht="71.25">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5">
@@ -979,7 +979,7 @@
     </row>
     <row r="10" spans="1:7" ht="57">
       <c r="A10" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42.75">
@@ -1027,7 +1027,7 @@
     <row r="13" spans="1:7" ht="42.75">
       <c r="A13" s="6"/>
       <c r="B13" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     <row r="14" spans="1:7" ht="42.75">
       <c r="A14" s="6"/>
       <c r="B14" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     <row r="15" spans="1:7" ht="42.75">
       <c r="A15" s="6"/>
       <c r="B15" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -1090,7 +1090,7 @@
     <row r="16" spans="1:7" ht="28.5">
       <c r="A16" s="6"/>
       <c r="B16" s="10" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1132,7 +1132,7 @@
     <row r="18" spans="1:7" ht="42.75">
       <c r="A18" s="6"/>
       <c r="B18" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1153,22 +1153,22 @@
     <row r="19" spans="1:7" ht="42.75">
       <c r="A19" s="6"/>
       <c r="B19" s="10" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>173.304</v>
+        <v>169.70400000000001</v>
       </c>
       <c r="E19" s="7">
-        <v>2437</v>
+        <v>2387</v>
       </c>
       <c r="F19" s="7">
         <v>0.65</v>
       </c>
       <c r="G19" s="11">
-        <v>1584.05</v>
+        <v>1551.55</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="42.75">
@@ -1286,12 +1286,12 @@
         <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>1902.252</v>
+        <v>1898.652</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="11">
-        <v>24780.59</v>
+        <v>24748.09</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1311,7 +1311,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F28" s="7">
         <v>32.21</v>
@@ -1328,13 +1328,13 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7">
-        <v>31613.11</v>
+        <v>31580.61</v>
       </c>
       <c r="F29" s="7">
         <v>0.1</v>
       </c>
       <c r="G29" s="11">
-        <v>3319.38</v>
+        <v>3315.96</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1358,7 +1358,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="11">
-        <v>34932.49</v>
+        <v>34896.58</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="42.75">
@@ -1369,7 +1369,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F32" s="7">
         <v>145.34</v>
@@ -1386,7 +1386,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F33" s="7">
         <v>145.34</v>
@@ -1464,7 +1464,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F39" s="7">
         <v>109.9</v>
@@ -1507,7 +1507,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="11">
-        <v>229251.95</v>
+        <v>229216.04</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="57">
@@ -1544,7 +1544,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="11">
-        <v>287183.95</v>
+        <v>287148.03999999998</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1597,7 +1597,7 @@
     </row>
     <row r="50" spans="1:7" ht="85.5">
       <c r="A50" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="71.25">
@@ -1617,12 +1617,12 @@
     </row>
     <row r="54" spans="1:7" ht="71.25">
       <c r="A54" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28.5">
       <c r="A55" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.5">
@@ -1632,7 +1632,7 @@
     </row>
     <row r="57" spans="1:7" ht="57">
       <c r="A57" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="42.75">
@@ -1701,7 +1701,7 @@
     <row r="61" spans="1:7" ht="28.5">
       <c r="A61" s="6"/>
       <c r="B61" s="10" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C61" s="7">
         <v>0</v>
@@ -1743,7 +1743,7 @@
     <row r="63" spans="1:7" ht="42.75">
       <c r="A63" s="6"/>
       <c r="B63" s="10" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C63" s="7">
         <v>0</v>
@@ -1817,7 +1817,7 @@
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F68" s="7">
         <v>32.21</v>
@@ -1875,7 +1875,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="F72" s="7">
         <v>145.34</v>
@@ -1892,7 +1892,7 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F73" s="7">
         <v>145.34</v>
@@ -1970,7 +1970,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F79" s="7">
         <v>109.9</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="90" spans="1:7" ht="85.5">
       <c r="A90" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="71.25">
@@ -2123,22 +2123,22 @@
     </row>
     <row r="94" spans="1:7" ht="71.25">
       <c r="A94" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="28.5">
       <c r="A95" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="28.5">
       <c r="A96" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="57">
       <c r="A97" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="42.75">
@@ -2165,7 +2165,7 @@
     <row r="99" spans="1:7">
       <c r="A99" s="6"/>
       <c r="B99" s="10" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C99" s="7">
         <v>0</v>
@@ -2186,7 +2186,7 @@
     <row r="100" spans="1:7" ht="28.5">
       <c r="A100" s="6"/>
       <c r="B100" s="10" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C100" s="7">
         <v>0</v>
@@ -2260,7 +2260,7 @@
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F105" s="7">
         <v>32.21</v>
@@ -2318,7 +2318,7 @@
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F109" s="7">
         <v>145.34</v>
@@ -2413,7 +2413,7 @@
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F116" s="7">
         <v>109.9</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="126" spans="1:7" ht="85.5">
       <c r="A126" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="71.25">
@@ -2553,12 +2553,12 @@
     </row>
     <row r="130" spans="1:7" ht="71.25">
       <c r="A130" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="28.5">
       <c r="A131" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="28.5">
@@ -2568,7 +2568,7 @@
     </row>
     <row r="133" spans="1:7" ht="57">
       <c r="A133" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="42.75">
@@ -2616,7 +2616,7 @@
     <row r="136" spans="1:7" ht="42.75">
       <c r="A136" s="6"/>
       <c r="B136" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C136" s="7">
         <v>0</v>
@@ -2830,7 +2830,7 @@
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F151" s="7">
         <v>109.9</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="162" spans="1:7" ht="85.5">
       <c r="A162" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="71.25">
@@ -2973,37 +2973,37 @@
     </row>
     <row r="164" spans="1:7" ht="71.25">
       <c r="A164" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="71.25">
       <c r="A166" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="28.5">
       <c r="A167" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="57">
       <c r="A169" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="21" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B170" s="22" t="s">
         <v>4</v>
@@ -3012,11 +3012,11 @@
         <v>7</v>
       </c>
       <c r="D170" s="24" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E170" s="24"/>
       <c r="F170" s="24" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G170" s="24"/>
     </row>
@@ -3025,16 +3025,16 @@
       <c r="B171" s="22"/>
       <c r="C171" s="23"/>
       <c r="D171" s="18" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E171" s="20" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G171" s="18" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -3042,7 +3042,7 @@
         <v>1900</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C172" s="7">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>1900</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C173" s="7">
         <v>1</v>
@@ -3178,7 +3178,7 @@
         <v>19</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -3231,12 +3231,12 @@
     <row r="185" spans="1:7" ht="71.25">
       <c r="A185" s="6"/>
       <c r="B185" s="10" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F185" s="7">
         <v>1.91</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="191" spans="1:7" ht="85.5">
       <c r="A191" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="71.25">
@@ -3336,17 +3336,17 @@
     </row>
     <row r="195" spans="1:5" ht="71.25">
       <c r="A195" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="28.5">
       <c r="A196" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="57">
       <c r="A197" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="57">
@@ -3371,7 +3371,7 @@
         <v>45</v>
       </c>
       <c r="B199" s="12">
-        <v>344901.99</v>
+        <v>344866.08</v>
       </c>
       <c r="C199" s="7">
         <v>0</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="8" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B200" s="7">
         <v>0</v>
@@ -3418,7 +3418,7 @@
     <row r="202" spans="1:5">
       <c r="A202" s="8"/>
       <c r="B202" s="12">
-        <v>344901.99</v>
+        <v>344866.08</v>
       </c>
       <c r="C202" s="7">
         <v>0</v>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B205" s="7"/>
       <c r="C205" s="7">
-        <v>1981.8</v>
+        <v>1978.2</v>
       </c>
       <c r="D205" s="7"/>
       <c r="E205" s="6"/>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="13">
-        <v>345367.07</v>
+        <v>345331.16</v>
       </c>
       <c r="D209" s="7"/>
       <c r="E209" s="6"/>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="B210" s="7"/>
       <c r="C210" s="13">
-        <v>345367.07</v>
+        <v>345331.16</v>
       </c>
       <c r="D210" s="7"/>
       <c r="E210" s="6"/>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="215" spans="1:5" ht="85.5">
       <c r="A215" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="71.25">
@@ -3576,17 +3576,17 @@
     </row>
     <row r="219" spans="1:5" ht="71.25">
       <c r="A219" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="28.5">
       <c r="A220" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="57">
       <c r="A221" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="42.75">
@@ -3681,7 +3681,7 @@
     </row>
     <row r="228" spans="1:5" ht="42.75">
       <c r="A228" s="8" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B228" s="7">
         <v>48</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="229" spans="1:5" ht="42.75">
       <c r="A229" s="8" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B229" s="7">
         <v>288</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="231" spans="1:5" ht="57">
       <c r="A231" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B231" s="7">
         <v>24</v>
@@ -3741,16 +3741,16 @@
     </row>
     <row r="232" spans="1:5" ht="57">
       <c r="A232" s="8" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B232" s="7">
         <v>72</v>
       </c>
       <c r="C232" s="7">
-        <v>2437</v>
+        <v>2387</v>
       </c>
       <c r="D232" s="7">
-        <v>173.304</v>
+        <v>169.70400000000001</v>
       </c>
       <c r="E232" s="8"/>
     </row>
@@ -3801,16 +3801,16 @@
       </c>
       <c r="B236" s="7"/>
       <c r="C236" s="7">
-        <v>22423</v>
+        <v>22373</v>
       </c>
       <c r="D236" s="7">
-        <v>1981.48</v>
+        <v>1977.88</v>
       </c>
       <c r="E236" s="8"/>
     </row>
     <row r="237" spans="1:5" ht="85.5">
       <c r="A237" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="71.25">
@@ -3830,17 +3830,17 @@
     </row>
     <row r="241" spans="1:3" ht="71.25">
       <c r="A241" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="28.5">
       <c r="A242" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="57">
       <c r="A243" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="156.75">
@@ -3855,7 +3855,7 @@
     </row>
     <row r="246" spans="1:3" ht="85.5">
       <c r="A246" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="71.25">
@@ -3875,12 +3875,12 @@
     </row>
     <row r="250" spans="1:3" ht="71.25">
       <c r="A250" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="28.5">
       <c r="A251" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="28.5">
@@ -3890,7 +3890,7 @@
     </row>
     <row r="253" spans="1:3" ht="57">
       <c r="A253" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="42.75" customHeight="1">
@@ -3901,11 +3901,11 @@
       <c r="C254" s="27"/>
     </row>
     <row r="255" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A255" s="15" t="s">
+      <c r="A255" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B255" s="15"/>
-      <c r="C255" s="16">
+      <c r="B255" s="16"/>
+      <c r="C255" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       <c r="B256" s="9">
         <v>0</v>
       </c>
-      <c r="C256" s="16"/>
+      <c r="C256" s="17"/>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="8" t="s">
@@ -3925,25 +3925,25 @@
       <c r="B257" s="9">
         <v>0</v>
       </c>
-      <c r="C257" s="16"/>
+      <c r="C257" s="17"/>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="8" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B258" s="9">
         <v>0</v>
       </c>
-      <c r="C258" s="16"/>
+      <c r="C258" s="17"/>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="8" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B259" s="9">
         <v>0</v>
       </c>
-      <c r="C259" s="16"/>
+      <c r="C259" s="17"/>
     </row>
     <row r="260" spans="1:3" ht="28.5">
       <c r="A260" s="8" t="s">
@@ -3952,14 +3952,14 @@
       <c r="B260" s="9">
         <v>0</v>
       </c>
-      <c r="C260" s="16"/>
+      <c r="C260" s="17"/>
     </row>
     <row r="261" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A261" s="15" t="s">
+      <c r="A261" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B261" s="15"/>
-      <c r="C261" s="16">
+      <c r="B261" s="16"/>
+      <c r="C261" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3970,7 +3970,7 @@
       <c r="B262" s="9">
         <v>0</v>
       </c>
-      <c r="C262" s="16"/>
+      <c r="C262" s="17"/>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="8" t="s">
@@ -3979,25 +3979,25 @@
       <c r="B263" s="9">
         <v>0</v>
       </c>
-      <c r="C263" s="16"/>
+      <c r="C263" s="17"/>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="8" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B264" s="9">
         <v>0</v>
       </c>
-      <c r="C264" s="16"/>
+      <c r="C264" s="17"/>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="8" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B265" s="9">
         <v>0</v>
       </c>
-      <c r="C265" s="16"/>
+      <c r="C265" s="17"/>
     </row>
     <row r="266" spans="1:3" ht="28.5">
       <c r="A266" s="8" t="s">
@@ -4006,14 +4006,14 @@
       <c r="B266" s="9">
         <v>0</v>
       </c>
-      <c r="C266" s="16"/>
+      <c r="C266" s="17"/>
     </row>
     <row r="267" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A267" s="15" t="s">
+      <c r="A267" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B267" s="15"/>
-      <c r="C267" s="16">
+      <c r="B267" s="16"/>
+      <c r="C267" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4024,7 +4024,7 @@
       <c r="B268" s="9">
         <v>0</v>
       </c>
-      <c r="C268" s="16"/>
+      <c r="C268" s="17"/>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="8" t="s">
@@ -4033,25 +4033,25 @@
       <c r="B269" s="9">
         <v>0</v>
       </c>
-      <c r="C269" s="16"/>
+      <c r="C269" s="17"/>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="8" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B270" s="9">
         <v>0</v>
       </c>
-      <c r="C270" s="16"/>
+      <c r="C270" s="17"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="8" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B271" s="9">
         <v>0</v>
       </c>
-      <c r="C271" s="16"/>
+      <c r="C271" s="17"/>
     </row>
     <row r="272" spans="1:3" ht="28.5">
       <c r="A272" s="8" t="s">
@@ -4060,14 +4060,14 @@
       <c r="B272" s="9">
         <v>0</v>
       </c>
-      <c r="C272" s="16"/>
+      <c r="C272" s="17"/>
     </row>
     <row r="273" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A273" s="15" t="s">
+      <c r="A273" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B273" s="15"/>
-      <c r="C273" s="16">
+      <c r="B273" s="16"/>
+      <c r="C273" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4078,7 +4078,7 @@
       <c r="B274" s="9">
         <v>0</v>
       </c>
-      <c r="C274" s="16"/>
+      <c r="C274" s="17"/>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="8" t="s">
@@ -4087,25 +4087,25 @@
       <c r="B275" s="9">
         <v>0</v>
       </c>
-      <c r="C275" s="16"/>
+      <c r="C275" s="17"/>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="8" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B276" s="9">
         <v>0</v>
       </c>
-      <c r="C276" s="16"/>
+      <c r="C276" s="17"/>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="8" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B277" s="9">
         <v>0</v>
       </c>
-      <c r="C277" s="16"/>
+      <c r="C277" s="17"/>
     </row>
     <row r="278" spans="1:3" ht="28.5">
       <c r="A278" s="8" t="s">
@@ -4114,14 +4114,14 @@
       <c r="B278" s="9">
         <v>0</v>
       </c>
-      <c r="C278" s="16"/>
+      <c r="C278" s="17"/>
     </row>
     <row r="279" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A279" s="15" t="s">
+      <c r="A279" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B279" s="15"/>
-      <c r="C279" s="16">
+      <c r="B279" s="16"/>
+      <c r="C279" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       <c r="B280" s="9">
         <v>0</v>
       </c>
-      <c r="C280" s="16"/>
+      <c r="C280" s="17"/>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="8" t="s">
@@ -4141,25 +4141,25 @@
       <c r="B281" s="9">
         <v>0</v>
       </c>
-      <c r="C281" s="16"/>
+      <c r="C281" s="17"/>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="8" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B282" s="9">
         <v>0</v>
       </c>
-      <c r="C282" s="16"/>
+      <c r="C282" s="17"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="8" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B283" s="9">
         <v>0</v>
       </c>
-      <c r="C283" s="16"/>
+      <c r="C283" s="17"/>
     </row>
     <row r="284" spans="1:3" ht="28.5">
       <c r="A284" s="8" t="s">
@@ -4168,14 +4168,14 @@
       <c r="B284" s="9">
         <v>0</v>
       </c>
-      <c r="C284" s="16"/>
+      <c r="C284" s="17"/>
     </row>
     <row r="285" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A285" s="15" t="s">
+      <c r="A285" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B285" s="15"/>
-      <c r="C285" s="17">
+      <c r="B285" s="16"/>
+      <c r="C285" s="15">
         <v>66128</v>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       <c r="B286" s="14">
         <v>57932</v>
       </c>
-      <c r="C286" s="17"/>
+      <c r="C286" s="15"/>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="8" t="s">
@@ -4195,25 +4195,25 @@
       <c r="B287" s="14">
         <v>3552</v>
       </c>
-      <c r="C287" s="17"/>
+      <c r="C287" s="15"/>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="8" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B288" s="9">
         <v>0</v>
       </c>
-      <c r="C288" s="17"/>
+      <c r="C288" s="15"/>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="8" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B289" s="9">
         <v>0</v>
       </c>
-      <c r="C289" s="17"/>
+      <c r="C289" s="15"/>
     </row>
     <row r="290" spans="1:7" ht="28.5">
       <c r="A290" s="8" t="s">
@@ -4222,28 +4222,28 @@
       <c r="B290" s="14">
         <v>4644</v>
       </c>
-      <c r="C290" s="17"/>
+      <c r="C290" s="15"/>
     </row>
     <row r="291" spans="1:7" ht="28.5">
-      <c r="A291" s="15"/>
-      <c r="B291" s="15"/>
+      <c r="A291" s="16"/>
+      <c r="B291" s="16"/>
       <c r="C291" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="15" t="s">
+      <c r="A292" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B292" s="15"/>
-      <c r="C292" s="17">
+      <c r="B292" s="16"/>
+      <c r="C292" s="15">
         <v>66128</v>
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="15"/>
-      <c r="B293" s="15"/>
-      <c r="C293" s="17"/>
+      <c r="A293" s="16"/>
+      <c r="B293" s="16"/>
+      <c r="C293" s="15"/>
     </row>
     <row r="294" spans="1:7" ht="99.75">
       <c r="A294" s="25" t="s">
@@ -4255,17 +4255,17 @@
       <c r="A295" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B295" s="17">
+      <c r="B295" s="15">
         <v>66128</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="8"/>
-      <c r="B296" s="17"/>
+      <c r="B296" s="15"/>
     </row>
     <row r="297" spans="1:7" ht="85.5">
       <c r="A297" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="71.25">
@@ -4285,17 +4285,17 @@
     </row>
     <row r="301" spans="1:7" ht="71.25">
       <c r="A301" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="28.5">
       <c r="A302" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="57">
       <c r="A303" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="71.25">
@@ -4329,10 +4329,10 @@
         <v>90</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D305" s="10" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E305" s="7">
         <v>48.48</v>
@@ -4352,10 +4352,10 @@
         <v>92</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D306" s="10" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E306" s="7">
         <v>157.91</v>
@@ -4375,10 +4375,10 @@
         <v>91</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D307" s="10" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E307" s="7">
         <v>62.5</v>
@@ -4398,10 +4398,10 @@
         <v>93</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D308" s="10" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E308" s="7">
         <v>0</v>
@@ -4415,16 +4415,16 @@
     </row>
     <row r="309" spans="1:7" ht="42.75">
       <c r="A309" s="8" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B309" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D309" s="10" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E309" s="7">
         <v>2.0299999999999998</v>
@@ -4464,29 +4464,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="C279:C284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="C285:C290"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="C261:C266"/>
     <mergeCell ref="A267:B267"/>
     <mergeCell ref="C267:C272"/>
     <mergeCell ref="A273:B273"/>
     <mergeCell ref="C273:C278"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="C279:C284"/>
     <mergeCell ref="A254:B254"/>
     <mergeCell ref="A255:B255"/>
     <mergeCell ref="C255:C260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="C261:C266"/>
     <mergeCell ref="A170:A171"/>
     <mergeCell ref="B170:B171"/>
     <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="C285:C290"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="B295:B296"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
